--- a/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataReaderRenderTest/TestRenderDataReader_HorizontalPanel.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataReaderRenderTest/TestRenderDataReader_HorizontalPanel.xlsx
@@ -172,13 +172,17 @@
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="6">
+  <x:cellXfs count="7">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -492,91 +496,109 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:F12"/>
+  <x:dimension ref="A1:G12"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="2" spans="1:6">
+    <x:row r="2" spans="1:7">
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="C2" s="2" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D2" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="D2" s="2" t="n">
+      <x:c r="E2" s="3" t="n">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="E2" s="2" t="n">
+      <x:c r="F2" s="3" t="n">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="F2" s="3" t="s"/>
+      <x:c r="G2" s="4" t="s"/>
     </x:row>
-    <x:row r="3" spans="1:6">
+    <x:row r="3" spans="1:7">
       <x:c r="B3" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="s">
+      <x:c r="C3" s="2" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="D3" s="3" t="s">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="D3" s="2" t="s">
+      <x:c r="E3" s="3" t="s">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="E3" s="2" t="s">
+      <x:c r="F3" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="F3" s="3" t="s"/>
+      <x:c r="G3" s="4" t="s"/>
     </x:row>
-    <x:row r="4" spans="1:6">
+    <x:row r="4" spans="1:7">
       <x:c r="B4" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="b">
+      <x:c r="C4" s="2" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D4" s="3" t="b">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="D4" s="2" t="b">
+      <x:c r="E4" s="3" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E4" s="2" t="s"/>
       <x:c r="F4" s="3" t="s"/>
+      <x:c r="G4" s="4" t="s"/>
     </x:row>
-    <x:row r="5" spans="1:6">
+    <x:row r="5" spans="1:7">
       <x:c r="B5" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="s"/>
-      <x:c r="D5" s="2" t="n">
+      <x:c r="C5" s="2" t="n">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="D5" s="3" t="s"/>
+      <x:c r="E5" s="3" t="n">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E5" s="2" t="s"/>
       <x:c r="F5" s="3" t="s"/>
+      <x:c r="G5" s="4" t="s"/>
     </x:row>
-    <x:row r="6" spans="1:6">
+    <x:row r="6" spans="1:7">
       <x:c r="B6" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="s"/>
-      <x:c r="D6" s="2" t="s">
+      <x:c r="C6" s="2" t="n">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="D6" s="3" t="s"/>
+      <x:c r="E6" s="3" t="s">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="E6" s="2" t="s">
+      <x:c r="F6" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="F6" s="3" t="s"/>
+      <x:c r="G6" s="4" t="s"/>
     </x:row>
-    <x:row r="7" spans="1:6">
+    <x:row r="7" spans="1:7">
       <x:c r="B7" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="5" t="n">
+      <x:c r="C7" s="2" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D7" s="6" t="n">
         <x:v>523635.93</x:v>
       </x:c>
-      <x:c r="D7" s="5" t="s"/>
-      <x:c r="E7" s="5" t="n">
+      <x:c r="E7" s="6" t="s"/>
+      <x:c r="F7" s="6" t="n">
         <x:v>100000.5532</x:v>
       </x:c>
-      <x:c r="F7" s="4" t="n">
+      <x:c r="G7" s="5" t="n">
         <x:v>623636.4832</x:v>
       </x:c>
     </x:row>

--- a/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataReaderRenderTest/TestRenderDataReader_HorizontalPanel.xlsx
+++ b/ExcelReportGenerator.Tests/TestData/DataSourceDynamicPanelDataReaderRenderTest/TestRenderDataReader_HorizontalPanel.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>Id</x:t>
   </x:si>
@@ -55,7 +55,7 @@
 <x:styleSheet xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:numFmts count="2">
     <x:numFmt numFmtId="0" formatCode=""/>
-    <x:numFmt numFmtId="165" formatCode="#,0.00"/>
+    <x:numFmt numFmtId="164" formatCode="#,0.00"/>
   </x:numFmts>
   <x:fonts count="2">
     <x:font>
@@ -165,10 +165,10 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <x:protection locked="1" hidden="0"/>
-    </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:protection locked="1" hidden="0"/>
     </x:xf>
   </x:cellStyleXfs>
@@ -193,11 +193,11 @@
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
-    <x:xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <x:protection locked="1" hidden="0"/>
     </x:xf>
@@ -506,25 +506,25 @@
       <x:c r="B2" s="1" t="s">
         <x:v>0</x:v>
       </x:c>
-      <x:c r="C2" s="2" t="n">
+      <x:c r="C2" s="2">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="D2" s="3" t="n">
+      <x:c r="D2" s="3">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="E2" s="3" t="n">
+      <x:c r="E2" s="3">
         <x:v>2</x:v>
       </x:c>
-      <x:c r="F2" s="3" t="n">
+      <x:c r="F2" s="3">
         <x:v>3</x:v>
       </x:c>
-      <x:c r="G2" s="4" t="s"/>
+      <x:c r="G2" s="4"/>
     </x:row>
     <x:row r="3" spans="1:7">
       <x:c r="B3" s="1" t="s">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="C3" s="2" t="n">
+      <x:c r="C3" s="2">
         <x:v>6</x:v>
       </x:c>
       <x:c r="D3" s="3" t="s">
@@ -536,13 +536,13 @@
       <x:c r="F3" s="3" t="s">
         <x:v>4</x:v>
       </x:c>
-      <x:c r="G3" s="4" t="s"/>
+      <x:c r="G3" s="4"/>
     </x:row>
     <x:row r="4" spans="1:7">
       <x:c r="B4" s="1" t="s">
         <x:v>5</x:v>
       </x:c>
-      <x:c r="C4" s="2" t="n">
+      <x:c r="C4" s="2">
         <x:v>7</x:v>
       </x:c>
       <x:c r="D4" s="3" t="b">
@@ -551,54 +551,54 @@
       <x:c r="E4" s="3" t="b">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F4" s="3" t="s"/>
-      <x:c r="G4" s="4" t="s"/>
+      <x:c r="F4" s="3"/>
+      <x:c r="G4" s="4"/>
     </x:row>
     <x:row r="5" spans="1:7">
       <x:c r="B5" s="1" t="s">
         <x:v>6</x:v>
       </x:c>
-      <x:c r="C5" s="2" t="n">
+      <x:c r="C5" s="2">
         <x:v>8</x:v>
       </x:c>
-      <x:c r="D5" s="3" t="s"/>
-      <x:c r="E5" s="3" t="n">
+      <x:c r="D5" s="3"/>
+      <x:c r="E5" s="3">
         <x:v>1</x:v>
       </x:c>
-      <x:c r="F5" s="3" t="s"/>
-      <x:c r="G5" s="4" t="s"/>
+      <x:c r="F5" s="3"/>
+      <x:c r="G5" s="4"/>
     </x:row>
     <x:row r="6" spans="1:7">
       <x:c r="B6" s="1" t="s">
         <x:v>7</x:v>
       </x:c>
-      <x:c r="C6" s="2" t="n">
+      <x:c r="C6" s="2">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="D6" s="3" t="s"/>
+      <x:c r="D6" s="3"/>
       <x:c r="E6" s="3" t="s">
         <x:v>8</x:v>
       </x:c>
       <x:c r="F6" s="3" t="s">
         <x:v>9</x:v>
       </x:c>
-      <x:c r="G6" s="4" t="s"/>
+      <x:c r="G6" s="4"/>
     </x:row>
     <x:row r="7" spans="1:7">
       <x:c r="B7" s="1" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C7" s="2" t="n">
+      <x:c r="C7" s="2">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="D7" s="6" t="n">
+      <x:c r="D7" s="5">
         <x:v>523635.93</x:v>
       </x:c>
-      <x:c r="E7" s="6" t="s"/>
-      <x:c r="F7" s="6" t="n">
+      <x:c r="E7" s="5"/>
+      <x:c r="F7" s="5">
         <x:v>100000.5532</x:v>
       </x:c>
-      <x:c r="G7" s="5" t="n">
+      <x:c r="G7" s="6">
         <x:v>623636.4832</x:v>
       </x:c>
     </x:row>
